--- a/biology/Zoologie/Gerbillus_dunni/Gerbillus_dunni.xlsx
+++ b/biology/Zoologie/Gerbillus_dunni/Gerbillus_dunni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus dunni ou Gerbillus (Gerbillus) dunni est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans l'est de l'Éthiopie, le centre de la Somalie, Djibouti et Érythrée.
 Synonyme : Gerbillus bilensis Frick, 1914
